--- a/exemple-valide.xlsx
+++ b/exemple-valide.xlsx
@@ -1,55 +1,303 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manon\Documents\Ecoteka\Interne\Schema_Arbre\schema-arbre\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE16908A-AFF0-4FB3-A0CB-E0776E22943B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-23148" yWindow="3240" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="liste_nomcommun">[1]correspondances!$A$2:$A$100</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>date_creation</t>
-  </si>
-  <si>
-    <t>nom</t>
-  </si>
-  <si>
-    <t>Brouette</t>
-  </si>
-  <si>
-    <t>Tracteur</t>
-  </si>
-  <si>
-    <t>Pelle</t>
-  </si>
-  <si>
-    <t>Bus</t>
+    <t>famille_arbre</t>
+  </si>
+  <si>
+    <t>genre_arbre</t>
+  </si>
+  <si>
+    <t>espece_arbre</t>
+  </si>
+  <si>
+    <t>nom_vernaculaire</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>code_insee</t>
+  </si>
+  <si>
+    <t>code_postal</t>
+  </si>
+  <si>
+    <t>adresse</t>
+  </si>
+  <si>
+    <t>matricule_arbre</t>
+  </si>
+  <si>
+    <t>date_plantation</t>
+  </si>
+  <si>
+    <t>hauteur</t>
+  </si>
+  <si>
+    <t>diametre</t>
+  </si>
+  <si>
+    <t>type_sol</t>
+  </si>
+  <si>
+    <t>type_enracinement</t>
+  </si>
+  <si>
+    <t>port_arbre</t>
+  </si>
+  <si>
+    <t>arbre_remarquable</t>
+  </si>
+  <si>
+    <t>arbre_protege</t>
+  </si>
+  <si>
+    <t>contraintes_sol</t>
+  </si>
+  <si>
+    <t>contrainte_aeriennes</t>
+  </si>
+  <si>
+    <t>eclairage</t>
+  </si>
+  <si>
+    <t>arrosage</t>
+  </si>
+  <si>
+    <t>allergie</t>
+  </si>
+  <si>
+    <t>remarque</t>
+  </si>
+  <si>
+    <t>Acer</t>
+  </si>
+  <si>
+    <t>campestre</t>
+  </si>
+  <si>
+    <t>Pyrus</t>
+  </si>
+  <si>
+    <t>calleryana</t>
+  </si>
+  <si>
+    <t>chanticleerc</t>
+  </si>
+  <si>
+    <t>Poirier "chanticleerc"</t>
+  </si>
+  <si>
+    <t>5.3705</t>
+  </si>
+  <si>
+    <t>5.4805</t>
+  </si>
+  <si>
+    <t>5.3761</t>
+  </si>
+  <si>
+    <t>43.2959</t>
+  </si>
+  <si>
+    <t>43.2915</t>
+  </si>
+  <si>
+    <t>44.2920</t>
+  </si>
+  <si>
+    <t>Platanus</t>
+  </si>
+  <si>
+    <t>Sapindaceae</t>
+  </si>
+  <si>
+    <t>occidentalis</t>
+  </si>
+  <si>
+    <t>Platanaceae</t>
+  </si>
+  <si>
+    <t>Platane d'Amérique</t>
+  </si>
+  <si>
+    <t>Erable champetre</t>
+  </si>
+  <si>
+    <t>320 Avenue Joseph Roumanille</t>
+  </si>
+  <si>
+    <t>60 rue sainte</t>
+  </si>
+  <si>
+    <t>48 rue des hauts bois</t>
+  </si>
+  <si>
+    <t>72 Boulevard des Dames</t>
+  </si>
+  <si>
+    <t>Pinus</t>
+  </si>
+  <si>
+    <t>sylvestris</t>
+  </si>
+  <si>
+    <t>Rosaceae</t>
+  </si>
+  <si>
+    <t>Pin sylvestre</t>
+  </si>
+  <si>
+    <t>Pinaceae</t>
+  </si>
+  <si>
+    <t>1998PyrCal130011150</t>
+  </si>
+  <si>
+    <t>Argileux</t>
+  </si>
+  <si>
+    <t>Sableux</t>
+  </si>
+  <si>
+    <t>Pivotant</t>
+  </si>
+  <si>
+    <t>Argilo-sableux</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>Cône</t>
+  </si>
+  <si>
+    <t>Boule</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>Sol perméabilisé</t>
+  </si>
+  <si>
+    <t>Grille abimée</t>
+  </si>
+  <si>
+    <t>Cables éléctriques</t>
+  </si>
+  <si>
+    <t>proximité d'un mur</t>
+  </si>
+  <si>
+    <t>Goutte à goutte</t>
+  </si>
+  <si>
+    <t>tronc abimé lors de travaux</t>
+  </si>
+  <si>
+    <t>dans un alignement</t>
+  </si>
+  <si>
+    <t>cultivar_variete_arbre</t>
+  </si>
+  <si>
+    <t>49.802</t>
+  </si>
+  <si>
+    <t>0.3768</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="8"/>
+      <color rgb="FF525457"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -57,88 +305,453 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="inventaire"/>
+      <sheetName val="listes"/>
+      <sheetName val="correspondances"/>
+      <sheetName val="inventaire_table"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Aubebines</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>bouleau pleureur</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>bouleau veruqueux</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Buis</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>cedre de l'atlas</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>cerisier à fleur</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>charme</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Chene rouge</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v xml:space="preserve">cotonneaster a feuille de saule </v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>erable champetre</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>erable plane</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>erable pourpre</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>erable rouge</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>erable sycomore</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Eucalyptus</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Frene commun</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>ginkgo</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>hetre</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>hetre pourpre</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Houx commun</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Houx panaché "silver queen"</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>if</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>if commun</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>If doré</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>laurier cerise</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Liquidambar</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>magnolia</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>marronnier</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>marronnier blanc</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>marronnier rouge</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>noisetier</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>Paulownia</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>Peuplier</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>Pin noir</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>Pin sylvestre</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>Platane commun</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>Poirier "chanticleerc"</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>Pommier</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>Prunier-cerise</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>saule marsault</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>sophora du japon</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>sorbier des oiseleurs</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>sorbier fastigiata</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>thuya</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>Tilleul à grandes feuilles</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>Tilleul argenté</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>Trachycarpus</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>tulipier de virginie</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -279,75 +892,372 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>42.0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>43888.0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="5">
+        <v>13028</v>
+      </c>
+      <c r="J2">
+        <v>13600</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="str">
+        <f>"259001"</f>
+        <v>259001</v>
+      </c>
+      <c r="M2" s="7">
+        <v>43232</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2">
+        <v>58</v>
+      </c>
+      <c r="P2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y2">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>43.0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>43886.0</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="5">
+        <v>13055</v>
+      </c>
+      <c r="J3">
+        <v>13001</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="7">
+        <v>35905</v>
+      </c>
+      <c r="N3">
+        <v>235</v>
+      </c>
+      <c r="O3">
+        <v>73</v>
+      </c>
+      <c r="P3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" t="s">
+        <v>63</v>
+      </c>
+      <c r="V3" t="s">
+        <v>65</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="5">
+        <v>13055</v>
+      </c>
+      <c r="J4">
+        <v>13002</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="7">
+        <v>32933</v>
+      </c>
+      <c r="S4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>43886.0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>45.0</v>
-      </c>
-      <c r="B5" s="2">
-        <v>43886.0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
+      <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="5">
+        <v>13055</v>
+      </c>
+      <c r="J5">
+        <v>13013</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T5" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{3BDB82D5-4961-4D58-8C43-D6CFB0BB52A6}">
+      <formula1>liste_nomcommun</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/exemple-valide.xlsx
+++ b/exemple-valide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_35fd\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D3E04B0-C55D-41BE-8702-CFFC46A8262B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47E9B1C4-82BA-4012-997D-165F3E5CB183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
   <si>
     <t>id</t>
   </si>
@@ -151,6 +151,9 @@
     <t>Jeune</t>
   </si>
   <si>
+    <t>182.12</t>
+  </si>
+  <si>
     <t>Argilo-sableux</t>
   </si>
   <si>
@@ -206,6 +209,12 @@
   </si>
   <si>
     <t>Adulte</t>
+  </si>
+  <si>
+    <t>229.10</t>
+  </si>
+  <si>
+    <t>1.5</t>
   </si>
   <si>
     <t>Argileux</t>
@@ -290,6 +299,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -767,9 +779,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1127,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1238,7 +1251,7 @@
       <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>43385</v>
       </c>
       <c r="E2" t="s">
@@ -1265,7 +1278,7 @@
       <c r="M2">
         <v>259001</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="2">
         <v>43232</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -1277,42 +1290,41 @@
       <c r="Q2">
         <v>58</v>
       </c>
-      <c r="R2">
-        <f>Q2*3.14</f>
-        <v>182.12</v>
+      <c r="R2" t="s">
+        <v>39</v>
       </c>
       <c r="S2">
         <v>3</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AC2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD2">
         <v>3</v>
@@ -1323,28 +1335,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="1">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2">
         <v>44306</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J3">
         <v>13055</v>
@@ -1353,16 +1365,16 @@
         <v>13001</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="1">
+        <v>57</v>
+      </c>
+      <c r="N3" s="2">
         <v>35905</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P3">
         <v>235</v>
@@ -1370,39 +1382,38 @@
       <c r="Q3">
         <v>73</v>
       </c>
-      <c r="R3">
-        <f t="shared" ref="R3" si="0">Q3*3.14</f>
-        <v>229.22</v>
-      </c>
-      <c r="S3">
-        <v>1.5</v>
+      <c r="R3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S3" t="s">
+        <v>60</v>
       </c>
       <c r="T3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AA3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AB3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -1410,25 +1421,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="1">
+        <v>68</v>
+      </c>
+      <c r="D4" s="2">
         <v>35855</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J4">
         <v>13055</v>
@@ -1437,31 +1448,31 @@
         <v>13002</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N4" s="1">
+        <v>73</v>
+      </c>
+      <c r="N4" s="2">
         <v>32933</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AD4">
         <v>2</v>
       </c>
       <c r="AE4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -1469,22 +1480,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J5">
         <v>13055</v>
@@ -1493,28 +1504,28 @@
         <v>13013</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="T5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="U5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="V5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/exemple-valide.xlsx
+++ b/exemple-valide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_35fd\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47E9B1C4-82BA-4012-997D-165F3E5CB183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D7BAFAF-4647-42B0-B84B-B3BA32694F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -779,10 +779,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1141,7 +1142,7 @@
   <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="J2" sqref="J2:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1266,10 +1267,10 @@
       <c r="I2" t="s">
         <v>36</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>13028</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>13600</v>
       </c>
       <c r="L2" t="s">
@@ -1358,10 +1359,10 @@
       <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>13055</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>13001</v>
       </c>
       <c r="L3" t="s">
@@ -1441,10 +1442,10 @@
       <c r="I4" t="s">
         <v>72</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>13055</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>13002</v>
       </c>
       <c r="L4" t="s">
@@ -1497,10 +1498,10 @@
       <c r="I5" t="s">
         <v>81</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>13055</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>13013</v>
       </c>
       <c r="L5" t="s">

--- a/exemple-valide.xlsx
+++ b/exemple-valide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_35fd\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D7BAFAF-4647-42B0-B84B-B3BA32694F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D1EF678-CC60-4519-9B28-7EBF0A70F652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -783,7 +783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1142,7 +1142,7 @@
   <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K5"/>
+      <selection activeCell="K5" sqref="J2:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>

--- a/exemple-valide.xlsx
+++ b/exemple-valide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_35fd\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D1EF678-CC60-4519-9B28-7EBF0A70F652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FA7BCF2-E379-4B77-8639-622801225608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -783,7 +783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1142,7 +1142,7 @@
   <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="J2:K5"/>
+      <selection activeCell="J2" sqref="J2:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>

--- a/exemple-valide.xlsx
+++ b/exemple-valide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_35fd\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FA7BCF2-E379-4B77-8639-622801225608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9684C8DC-4523-4818-9CDD-25BA27F2A7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="96">
   <si>
     <t>id</t>
   </si>
@@ -145,9 +145,18 @@
     <t>Erable champetre</t>
   </si>
   <si>
+    <t>2A123</t>
+  </si>
+  <si>
+    <t>13600</t>
+  </si>
+  <si>
     <t>320 Avenue Joseph Roumanille</t>
   </si>
   <si>
+    <t>259001</t>
+  </si>
+  <si>
     <t>Jeune</t>
   </si>
   <si>
@@ -202,6 +211,12 @@
     <t>Poirier "chanticleerc"</t>
   </si>
   <si>
+    <t>75013</t>
+  </si>
+  <si>
+    <t>13001</t>
+  </si>
+  <si>
     <t>60 rue sainte</t>
   </si>
   <si>
@@ -253,6 +268,12 @@
     <t>Platane d'Amérique</t>
   </si>
   <si>
+    <t>13112</t>
+  </si>
+  <si>
+    <t>13002</t>
+  </si>
+  <si>
     <t>72 Boulevard des Dames</t>
   </si>
   <si>
@@ -278,6 +299,12 @@
   </si>
   <si>
     <t>Pin sylvestre</t>
+  </si>
+  <si>
+    <t>14654</t>
+  </si>
+  <si>
+    <t>13013</t>
   </si>
   <si>
     <t>48 rue des hauts bois</t>
@@ -302,7 +329,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +464,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF414245"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -619,7 +656,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -734,6 +771,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9A9A9A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9A9A9A"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9A9A9A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9A9A9A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -779,11 +846,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1142,10 +1211,13 @@
   <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K5"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="12" max="12" width="36.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
@@ -1267,23 +1339,23 @@
       <c r="I2" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="3">
-        <v>13028</v>
-      </c>
-      <c r="K2" s="3">
-        <v>13600</v>
+      <c r="J2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2">
-        <v>259001</v>
+        <v>39</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="N2" s="2">
         <v>43232</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P2">
         <v>100</v>
@@ -1292,40 +1364,40 @@
         <v>58</v>
       </c>
       <c r="R2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S2">
         <v>3</v>
       </c>
       <c r="T2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="V2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="W2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="X2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Z2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AA2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AB2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AC2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AD2">
         <v>3</v>
@@ -1336,46 +1408,46 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2">
         <v>44306</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="3">
-        <v>13055</v>
-      </c>
-      <c r="K3" s="3">
-        <v>13001</v>
+        <v>58</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="N3" s="2">
         <v>35905</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="P3">
         <v>235</v>
@@ -1384,37 +1456,37 @@
         <v>73</v>
       </c>
       <c r="R3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="S3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="T3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="U3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="V3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="X3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Z3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AA3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AE3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -1422,58 +1494,58 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2">
         <v>35855</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" s="3">
-        <v>13055</v>
-      </c>
-      <c r="K4" s="3">
-        <v>13002</v>
+        <v>77</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="L4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="N4" s="2">
         <v>32933</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="U4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="X4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AB4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AD4">
         <v>2</v>
       </c>
       <c r="AE4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -1481,52 +1553,52 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J5" s="3">
-        <v>13055</v>
-      </c>
-      <c r="K5" s="3">
-        <v>13013</v>
+        <v>88</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="L5" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="O5" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="T5" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="U5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="V5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="W5" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="X5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y5" t="s">
         <v>47</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
